--- a/medicine/Soins infirmiers et profession infirmière/Lillian_Wald/Lillian_Wald.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Lillian_Wald/Lillian_Wald.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lillian Wald, née le 10 mars 1867 à Cincinnati dans l'État de l'Ohio et morte le 1er septembre 1940 à Westport dans l'État du Connecticut, est une américaine soucieuse du développement de la santé et du bien-être des femmes et des enfants, elle est la rénovatrice des services et école des soins infirmiers et la fondatrice des services de soins infirmiers à domicile aux États-Unis.
 C'est également une figure majeure du Settlement movement par la fondation et la direction du Henry Street Settlement (en) et une réformatrice sociale américaine aux côtés de Jane Addams, Edith Abboth, Florence Kelley, Julia Lathrop.
@@ -518,15 +530,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Lillian D. Wald est la fille cadette et la troisième des quatre enfants de Max D. Wald et de Minnie Schwartz Wald, tous les deux sont des descendants de plusieurs générations de rabbins et de marchands juifs polonais et allemands qui ont migré aux États-Unis après les révolutions de 1848 qui ont secoué l'Europe. Max D. Wald ouvre une entreprise prospère de matériel optique ; ses affaires le conduisent à s'installer, lui et sa famille, à Cincinnati, Dayton puis Rochester dans l'État de New York[1],[2],[3],[4].
-Lillian D. Waldl suit ses études secondaires à la Miss Cruttenden's English-French Boarding and Day School for Young Ladies de Rochester, son cursus achevée elle se présente au Vassar College de  Poughkeepsie, mais elle est refusée à cause de jeune son âge, elle n'a alors que 16 ans. En août 1889, elle est admise à la New York Hospital School of Nursing (« École de soins infirmiers de l'hôpital de New York »)[1],[3],[4],[5],[6],[7].
-Carrière
-En 1893, après avoir travaillé dans un orphelinat, où la prise en charge des enfants était épouvantable, elle commença à donner des cours de soins infirmiers aux femmes de moyen social réduit dans le Lower East Side, un quartier alors populaire et largement juif à (New York). Peu après, elle commença à s'occuper des malades de ce quartier, puis se résolut à se consacrer entièrement à cette tâche, et, avec une autre infirmière, Mary Brewster, elle s'y installa. Afin de mieux organiser l'aide qu'elle fournissait aux malades du quartier, elle fonda le Henry Street Settlement  grâce aux contributions de Jacob H. Schiff, un riche banquier new-yorkais, qui ont permis d'acquérir un bâtiment permanent au 265, Henry Street[1],[3],[4],[8],[5],[6].
-À l'époque aux États-Unis, à la suite d'une vague d'immigration de Juifs d'origine russe, la communauté juive américaine était divisée entre ces nouveaux-arrivés pauvres et la communauté « traditionnelle » d'origine allemande. Schiff et Wald faisaient partie de ce dernier groupe et contribuèrent à forger des liens entre les deux communautés[1],[3].
-Aujourd'hui, l'on considère que Lillian Wald est la fondatrice des soins infirmiers aux États-Unis et au Canada[3].
-Vie privée
-Elle ne se maria jamais, préférant de se consacrer pleinement à sa carrière. Elle meurt en septembre 1940 dans son domicile, ses cendres sont conservées dans une urne dans le caveau familial du Mount Hope Cemetery (Rochester) (en). Une foule de 2 500 personnes assiste à une cérémonie commémorative en son honneur, elle se tient au Carnegie Hall de New York en novembre 1940[1],[2],[3],[5].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lillian D. Wald est la fille cadette et la troisième des quatre enfants de Max D. Wald et de Minnie Schwartz Wald, tous les deux sont des descendants de plusieurs générations de rabbins et de marchands juifs polonais et allemands qui ont migré aux États-Unis après les révolutions de 1848 qui ont secoué l'Europe. Max D. Wald ouvre une entreprise prospère de matériel optique ; ses affaires le conduisent à s'installer, lui et sa famille, à Cincinnati, Dayton puis Rochester dans l'État de New York.
+Lillian D. Waldl suit ses études secondaires à la Miss Cruttenden's English-French Boarding and Day School for Young Ladies de Rochester, son cursus achevée elle se présente au Vassar College de  Poughkeepsie, mais elle est refusée à cause de jeune son âge, elle n'a alors que 16 ans. En août 1889, elle est admise à la New York Hospital School of Nursing (« École de soins infirmiers de l'hôpital de New York »).
 </t>
         </is>
       </c>
@@ -552,16 +563,131 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1893, après avoir travaillé dans un orphelinat, où la prise en charge des enfants était épouvantable, elle commença à donner des cours de soins infirmiers aux femmes de moyen social réduit dans le Lower East Side, un quartier alors populaire et largement juif à (New York). Peu après, elle commença à s'occuper des malades de ce quartier, puis se résolut à se consacrer entièrement à cette tâche, et, avec une autre infirmière, Mary Brewster, elle s'y installa. Afin de mieux organiser l'aide qu'elle fournissait aux malades du quartier, elle fonda le Henry Street Settlement  grâce aux contributions de Jacob H. Schiff, un riche banquier new-yorkais, qui ont permis d'acquérir un bâtiment permanent au 265, Henry Street.
+À l'époque aux États-Unis, à la suite d'une vague d'immigration de Juifs d'origine russe, la communauté juive américaine était divisée entre ces nouveaux-arrivés pauvres et la communauté « traditionnelle » d'origine allemande. Schiff et Wald faisaient partie de ce dernier groupe et contribuèrent à forger des liens entre les deux communautés,.
+Aujourd'hui, l'on considère que Lillian Wald est la fondatrice des soins infirmiers aux États-Unis et au Canada.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lillian_Wald</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lillian_Wald</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle ne se maria jamais, préférant de se consacrer pleinement à sa carrière. Elle meurt en septembre 1940 dans son domicile, ses cendres sont conservées dans une urne dans le caveau familial du Mount Hope Cemetery (Rochester) (en). Une foule de 2 500 personnes assiste à une cérémonie commémorative en son honneur, elle se tient au Carnegie Hall de New York en novembre 1940.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lillian_Wald</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lillian_Wald</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Essais
-The House on Henry Street, New York, H. Holt and company (réimpr. 1991, 2006, 2008, 2020) (1re éd. 1915), 390 p. (ISBN 9780887383847, lire en ligne),
-Windows on Henry Street, Boston, Massachusetts, Little, Brown, and Company, 1er mars 1934, 376 p. (OCLC 494869, lire en ligne),
-Articles
-« Nurses' Settlement », The American Journal of Nursing, Vol. 1, No. 1,‎ octobre 1900, p. 39 (1 page) (lire en ligne ),
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The House on Henry Street, New York, H. Holt and company (réimpr. 1991, 2006, 2008, 2020) (1re éd. 1915), 390 p. (ISBN 9780887383847, lire en ligne),
+Windows on Henry Street, Boston, Massachusetts, Little, Brown, and Company, 1er mars 1934, 376 p. (OCLC 494869, lire en ligne),</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lillian_Wald</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lillian_Wald</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« Nurses' Settlement », The American Journal of Nursing, Vol. 1, No. 1,‎ octobre 1900, p. 39 (1 page) (lire en ligne ),
 « The Sophiahemmet in Stockholm », The American Journal of Nursing, Vol. 1, No. 3,‎ décembre 1900, p. 180-182 (6 pages) (lire en ligne ),
 « The Nurses' Settlement in New York », The American Journal of Nursing, Vol. 2, No. 8,‎ mai 1902, p. 567-575 (12 pages) (lire en ligne ),
 « Medical Inspection of Public Schools », The Annals of the American Academy of Political and Social Science, Vol. 25,‎ mars 1905, p. 88-96 (9 pages) (lire en ligne ),
@@ -574,35 +700,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Lillian_Wald</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lillian_Wald</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Hommage et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1912 : récipiendaire de la médaille d'or du National Institute of Social Sciences (en)[2],
-1937 ; la ville de New York lui décerne le New York City Distinguished Service Award[2],
-1993 : cérémonie d'admission au musée consacré aux américaines illustres, le National Women's Hall of Fame[9].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1912 : récipiendaire de la médaille d'or du National Institute of Social Sciences (en),
+1937 ; la ville de New York lui décerne le New York City Distinguished Service Award,
+1993 : cérémonie d'admission au musée consacré aux américaines illustres, le National Women's Hall of Fame.</t>
         </is>
       </c>
     </row>
